--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_5_16.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_5_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>393296.3414124861</v>
+        <v>454131.8163241863</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>337002.2430554244</v>
+        <v>337002.2430554247</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8574109.934192415</v>
+        <v>8574109.934192413</v>
       </c>
     </row>
     <row r="11">
@@ -661,13 +661,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C2" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="D2" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
       <c r="E2" t="n">
-        <v>202.2946864288972</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -703,7 +703,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -743,16 +743,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.9159726472779</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -761,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -791,7 +791,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>8.57852838363762</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
@@ -800,10 +800,10 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -873,13 +873,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>52.42556848774763</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -940,13 +940,13 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>94.41048699370604</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="6">
@@ -983,7 +983,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>35.40726547353844</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1025,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
@@ -1037,7 +1037,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>241.0142888776591</v>
+        <v>104.7383832473596</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1098,13 +1098,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="S7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1144,10 +1144,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G8" t="n">
-        <v>112.3289263072337</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1177,31 +1177,31 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1271,10 +1271,10 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>96.52468151912586</v>
       </c>
       <c r="W9" t="n">
-        <v>104.7383832473596</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1369,19 +1369,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>413.784170020795</v>
@@ -1390,7 +1390,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,28 +1417,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S11" t="n">
-        <v>159.0187004316888</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>42.6561926032557</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498671</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
@@ -1469,7 +1469,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I12" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S12" t="n">
         <v>156.5912426325231</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1539,13 +1539,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>94.63926978364054</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>34.02048567924308</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1590,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1606,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>164.2681622685778</v>
+        <v>112.1443580694844</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,22 +1660,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U14" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1703,10 +1703,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H15" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553073</v>
       </c>
       <c r="I15" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S15" t="n">
         <v>156.5912426325231</v>
@@ -1770,19 +1770,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>89.06613335611762</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1815,19 +1815,19 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>12.84584032841726</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1843,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>330.9097270775326</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>196.1431627512329</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1891,10 +1891,10 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S17" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>216.4483203576578</v>
@@ -1903,16 +1903,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1970,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S18" t="n">
-        <v>156.5912426325231</v>
+        <v>156.5912426325226</v>
       </c>
       <c r="T18" t="n">
         <v>196.8897623984489</v>
@@ -2010,10 +2010,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2058,16 +2058,16 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>94.63926978364057</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>123.4514883688806</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2080,16 +2080,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>210.2363855806324</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>12.29800990639686</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2098,10 +2098,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2140,13 +2140,13 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2213,7 +2213,7 @@
         <v>156.5912426325231</v>
       </c>
       <c r="T21" t="n">
-        <v>196.8897623984489</v>
+        <v>196.8897623984484</v>
       </c>
       <c r="U21" t="n">
         <v>225.8879277888686</v>
@@ -2241,10 +2241,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2298,13 +2298,13 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>155.2114886365811</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>184.2720459863179</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2317,22 +2317,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>73.46100831328349</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>30.9511725376177</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2368,13 +2368,13 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2386,7 +2386,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2481,13 +2481,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>71.27833349215661</v>
       </c>
       <c r="E25" t="n">
-        <v>94.63926978364054</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2529,19 +2529,19 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2557,22 +2557,22 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>242.5869640670677</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>37.53347933282165</v>
       </c>
       <c r="G26" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2614,16 +2614,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2651,10 +2651,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H27" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553078</v>
       </c>
       <c r="I27" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S27" t="n">
         <v>156.5912426325231</v>
@@ -2763,25 +2763,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>11.00429467105851</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>94.63926978364032</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2794,22 +2794,22 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>88.98398229505956</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
-        <v>32.60465838343584</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2839,19 +2839,19 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2860,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2888,10 +2888,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H30" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I30" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S30" t="n">
         <v>156.5912426325231</v>
@@ -2955,16 +2955,16 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3015,10 +3015,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>59.6638564154457</v>
       </c>
       <c r="Y31" t="n">
-        <v>155.4526127311944</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3031,22 +3031,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>96.63925887421881</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
-        <v>138.2124787264465</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3076,19 +3076,19 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S32" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3125,10 +3125,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H33" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553082</v>
       </c>
       <c r="I33" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S33" t="n">
         <v>156.5912426325231</v>
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3237,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3255,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>169.0167291702124</v>
+        <v>153.0555388225933</v>
       </c>
     </row>
     <row r="35">
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3274,10 +3274,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>413.784170020795</v>
@@ -3313,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S35" t="n">
         <v>174.4157128089715</v>
@@ -3322,16 +3322,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>362.933817400698</v>
+        <v>343.2373318719315</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3362,10 +3362,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H36" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I36" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>49.71123688229341</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S36" t="n">
         <v>156.5912426325231</v>
@@ -3423,22 +3423,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>59.6638564154457</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3477,16 +3477,16 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>94.63926978364057</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3502,19 +3502,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>413.784170020795</v>
@@ -3550,13 +3550,13 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>251.2241675082893</v>
@@ -3568,7 +3568,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>269.5177472176156</v>
+        <v>297.8716345709753</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3599,10 +3599,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H39" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I39" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S39" t="n">
         <v>156.5912426325231</v>
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>83.59830597394837</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S40" t="n">
         <v>212.1455389500189</v>
@@ -3726,10 +3726,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>4.553842565068941</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3745,7 +3745,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3757,7 +3757,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3787,28 +3787,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
-        <v>103.5576146249977</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>35.18155893056274</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3836,10 +3836,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H42" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I42" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S42" t="n">
         <v>156.5912426325231</v>
@@ -3897,19 +3897,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1.264003285459337</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3954,16 +3954,16 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>94.63926978364069</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3976,13 +3976,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>320.9072797474254</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>32.35613620990615</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -3991,13 +3991,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4024,10 +4024,10 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
         <v>216.4483203576578</v>
@@ -4042,7 +4042,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4146,7 +4146,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>70.26541886851867</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4188,19 +4188,19 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>234.4871813790491</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>467.067986854209</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C2" t="n">
-        <v>223.6192102101089</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D2" t="n">
-        <v>223.6192102101089</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E2" t="n">
         <v>19.28114311021272</v>
@@ -4351,31 +4351,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y2" t="n">
-        <v>710.516763498309</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>157.5801053801904</v>
+        <v>315.5042433973647</v>
       </c>
       <c r="C3" t="n">
-        <v>157.5801053801904</v>
+        <v>315.5042433973647</v>
       </c>
       <c r="D3" t="n">
-        <v>157.5801053801904</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="E3" t="n">
-        <v>157.5801053801904</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="F3" t="n">
-        <v>157.5801053801904</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M3" t="n">
-        <v>613.2059550252818</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N3" t="n">
-        <v>851.8101010141643</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O3" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P3" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
@@ -4439,22 +4439,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>761.8705608694022</v>
+        <v>955.3919753251437</v>
       </c>
       <c r="U3" t="n">
-        <v>533.6469426057913</v>
+        <v>727.1683570615328</v>
       </c>
       <c r="V3" t="n">
-        <v>533.6469426057913</v>
+        <v>727.1683570615328</v>
       </c>
       <c r="W3" t="n">
-        <v>533.6469426057913</v>
+        <v>483.7195804174328</v>
       </c>
       <c r="X3" t="n">
-        <v>325.7954424002585</v>
+        <v>483.7195804174328</v>
       </c>
       <c r="Y3" t="n">
-        <v>325.7954424002585</v>
+        <v>483.7195804174328</v>
       </c>
     </row>
     <row r="4">
@@ -4509,22 +4509,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V4" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W4" t="n">
         <v>19.28114311021272</v>
@@ -4588,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>601.5428246748836</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T5" t="n">
-        <v>601.5428246748836</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U5" t="n">
-        <v>601.5428246748836</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V5" t="n">
-        <v>601.5428246748836</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W5" t="n">
-        <v>601.5428246748836</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X5" t="n">
-        <v>601.5428246748836</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y5" t="n">
-        <v>506.1786963984129</v>
+        <v>559.1338160830064</v>
       </c>
     </row>
     <row r="6">
@@ -4622,13 +4622,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>55.04605772994853</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C6" t="n">
-        <v>55.04605772994853</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D6" t="n">
-        <v>55.04605772994853</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E6" t="n">
         <v>19.28114311021272</v>
@@ -4652,10 +4652,10 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>249.2442489785619</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M6" t="n">
-        <v>487.8483949674443</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N6" t="n">
         <v>725.4530095217538</v>
@@ -4673,25 +4673,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T6" t="n">
-        <v>761.8705608694022</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U6" t="n">
-        <v>533.6469426057913</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V6" t="n">
-        <v>298.4948343740486</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="W6" t="n">
-        <v>55.04605772994853</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X6" t="n">
-        <v>55.04605772994853</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y6" t="n">
-        <v>55.04605772994853</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="7">
@@ -4746,10 +4746,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S7" t="n">
         <v>19.28114311021272</v>
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>132.7447050367114</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C8" t="n">
-        <v>132.7447050367114</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D8" t="n">
-        <v>132.7447050367114</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E8" t="n">
-        <v>132.7447050367114</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F8" t="n">
-        <v>132.7447050367114</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G8" t="n">
         <v>19.28114311021272</v>
@@ -4825,31 +4825,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S8" t="n">
-        <v>601.5428246748836</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T8" t="n">
-        <v>376.1934816808115</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U8" t="n">
-        <v>132.7447050367114</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V8" t="n">
-        <v>132.7447050367114</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W8" t="n">
-        <v>132.7447050367114</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X8" t="n">
-        <v>132.7447050367114</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y8" t="n">
-        <v>132.7447050367114</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="9">
@@ -4886,19 +4886,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M9" t="n">
-        <v>374.6018090363993</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N9" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O9" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P9" t="n">
         <v>964.0571555106362</v>
@@ -4919,7 +4919,7 @@
         <v>360.2295980564601</v>
       </c>
       <c r="V9" t="n">
-        <v>125.0774898247174</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W9" t="n">
         <v>19.28114311021272</v>
@@ -5017,43 +5017,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1210.087414675782</v>
+        <v>1696.62143709608</v>
       </c>
       <c r="C11" t="n">
-        <v>1210.087414675782</v>
+        <v>1696.62143709608</v>
       </c>
       <c r="D11" t="n">
-        <v>1210.087414675782</v>
+        <v>1338.355738489329</v>
       </c>
       <c r="E11" t="n">
-        <v>1210.087414675782</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="F11" t="n">
-        <v>799.1015098861748</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G11" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H11" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I11" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J11" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733128</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N11" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O11" t="n">
         <v>2238.843319642689</v>
@@ -5065,28 +5065,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R11" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S11" t="n">
-        <v>2536.524141087224</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T11" t="n">
-        <v>2317.889474059286</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U11" t="n">
-        <v>2317.889474059286</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V11" t="n">
-        <v>1986.826586715716</v>
+        <v>2422.855850627274</v>
       </c>
       <c r="W11" t="n">
-        <v>1986.826586715716</v>
+        <v>2070.08719535716</v>
       </c>
       <c r="X11" t="n">
-        <v>1986.826586715716</v>
+        <v>1696.62143709608</v>
       </c>
       <c r="Y11" t="n">
-        <v>1596.687254739904</v>
+        <v>1696.62143709608</v>
       </c>
     </row>
     <row r="12">
@@ -5096,25 +5096,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C12" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E12" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F12" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G12" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H12" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I12" t="n">
         <v>53.94298182036445</v>
@@ -5123,13 +5123,13 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K12" t="n">
-        <v>266.2060027641987</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L12" t="n">
-        <v>670.8219208598706</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M12" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N12" t="n">
         <v>1748.695370517453</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>149.5382038240418</v>
+        <v>257.3069090307624</v>
       </c>
       <c r="C13" t="n">
-        <v>149.5382038240418</v>
+        <v>257.3069090307624</v>
       </c>
       <c r="D13" t="n">
-        <v>149.5382038240418</v>
+        <v>257.3069090307624</v>
       </c>
       <c r="E13" t="n">
-        <v>149.5382038240418</v>
+        <v>257.3069090307624</v>
       </c>
       <c r="F13" t="n">
-        <v>53.94298182036445</v>
+        <v>257.3069090307624</v>
       </c>
       <c r="G13" t="n">
-        <v>53.94298182036445</v>
+        <v>88.30710876909484</v>
       </c>
       <c r="H13" t="n">
         <v>53.94298182036445</v>
@@ -5205,46 +5205,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L13" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M13" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N13" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O13" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U13" t="n">
-        <v>438.9553738610024</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V13" t="n">
-        <v>438.9553738610024</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W13" t="n">
-        <v>149.5382038240418</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="X13" t="n">
-        <v>149.5382038240418</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="Y13" t="n">
-        <v>149.5382038240418</v>
+        <v>438.9553738610022</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1161.086123514381</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="C14" t="n">
-        <v>792.1236065739693</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="D14" t="n">
-        <v>792.1236065739693</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E14" t="n">
-        <v>792.1236065739693</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F14" t="n">
-        <v>381.1377017843616</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G14" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H14" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I14" t="n">
         <v>53.94298182036445</v>
@@ -5284,7 +5284,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
@@ -5308,22 +5308,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T14" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U14" t="n">
-        <v>2443.387305656314</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V14" t="n">
-        <v>2443.387305656314</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W14" t="n">
-        <v>2090.6186503862</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="X14" t="n">
-        <v>1717.15289212512</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="Y14" t="n">
-        <v>1327.013560149308</v>
+        <v>1893.689751284806</v>
       </c>
     </row>
     <row r="15">
@@ -5339,43 +5339,43 @@
         <v>814.044945935956</v>
       </c>
       <c r="D15" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E15" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F15" t="n">
         <v>359.3385232961342</v>
       </c>
       <c r="G15" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H15" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I15" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J15" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K15" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L15" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M15" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N15" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O15" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P15" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q15" t="n">
         <v>2697.149091018222</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>211.6913543878343</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="C16" t="n">
-        <v>211.6913543878343</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="D16" t="n">
-        <v>211.6913543878343</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E16" t="n">
-        <v>211.6913543878343</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F16" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G16" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H16" t="n">
         <v>53.94298182036445</v>
@@ -5463,25 +5463,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S16" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T16" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U16" t="n">
-        <v>224.6669506791649</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V16" t="n">
-        <v>211.6913543878343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W16" t="n">
-        <v>211.6913543878343</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X16" t="n">
-        <v>211.6913543878343</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="Y16" t="n">
-        <v>211.6913543878343</v>
+        <v>438.7118141694736</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1577.945354755378</v>
+        <v>1366.188433646014</v>
       </c>
       <c r="C17" t="n">
-        <v>1208.982837814967</v>
+        <v>997.225916705602</v>
       </c>
       <c r="D17" t="n">
-        <v>850.7171392082162</v>
+        <v>997.225916705602</v>
       </c>
       <c r="E17" t="n">
-        <v>464.928886609972</v>
+        <v>997.225916705602</v>
       </c>
       <c r="F17" t="n">
-        <v>53.94298182036445</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G17" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H17" t="n">
         <v>53.94298182036445</v>
@@ -5539,28 +5539,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R17" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S17" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T17" t="n">
-        <v>2302.336936304455</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U17" t="n">
-        <v>2302.336936304455</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V17" t="n">
-        <v>2302.336936304455</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="W17" t="n">
-        <v>2302.336936304455</v>
+        <v>1739.654191907093</v>
       </c>
       <c r="X17" t="n">
-        <v>2302.336936304455</v>
+        <v>1366.188433646014</v>
       </c>
       <c r="Y17" t="n">
-        <v>1912.197604328644</v>
+        <v>1366.188433646014</v>
       </c>
     </row>
     <row r="18">
@@ -5594,31 +5594,31 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J18" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K18" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L18" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M18" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N18" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O18" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P18" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q18" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R18" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S18" t="n">
         <v>2488.762748073964</v>
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="C19" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="D19" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E19" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F19" t="n">
         <v>53.94298182036445</v>
@@ -5679,46 +5679,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L19" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M19" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N19" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O19" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P19" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q19" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R19" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S19" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T19" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U19" t="n">
-        <v>438.9553738610024</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V19" t="n">
-        <v>343.360151857325</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W19" t="n">
-        <v>53.94298182036445</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="X19" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="Y19" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
     </row>
     <row r="20">
@@ -5728,43 +5728,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1580.775345511217</v>
+        <v>1763.586886263858</v>
       </c>
       <c r="C20" t="n">
-        <v>1580.775345511217</v>
+        <v>1394.624369323446</v>
       </c>
       <c r="D20" t="n">
-        <v>1222.509646904466</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E20" t="n">
-        <v>1210.087414675782</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F20" t="n">
-        <v>799.1015098861748</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G20" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H20" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I20" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J20" t="n">
-        <v>169.7108380533138</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733123</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N20" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O20" t="n">
         <v>2238.843319642689</v>
@@ -5788,16 +5788,16 @@
         <v>2697.149091018222</v>
       </c>
       <c r="V20" t="n">
-        <v>2697.149091018222</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W20" t="n">
-        <v>2344.380435748108</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="X20" t="n">
-        <v>1970.914677487028</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="Y20" t="n">
-        <v>1580.775345511217</v>
+        <v>1975.94687169884</v>
       </c>
     </row>
     <row r="21">
@@ -5831,34 +5831,34 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J21" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K21" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L21" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M21" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N21" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O21" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P21" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q21" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R21" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S21" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T21" t="n">
         <v>2289.884200196743</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>53.94298182036445</v>
+        <v>541.9956044222747</v>
       </c>
       <c r="C22" t="n">
-        <v>53.94298182036445</v>
+        <v>373.0594214943678</v>
       </c>
       <c r="D22" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E22" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F22" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G22" t="n">
         <v>53.94298182036445</v>
@@ -5916,46 +5916,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L22" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M22" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N22" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O22" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P22" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q22" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R22" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S22" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T22" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U22" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V22" t="n">
-        <v>571.3497027553424</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W22" t="n">
-        <v>281.9325327183818</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X22" t="n">
-        <v>53.94298182036445</v>
+        <v>541.9956044222747</v>
       </c>
       <c r="Y22" t="n">
-        <v>53.94298182036445</v>
+        <v>541.9956044222747</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1198.223260609829</v>
+        <v>546.109828622464</v>
       </c>
       <c r="C23" t="n">
-        <v>829.2607436694175</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="D23" t="n">
-        <v>470.995045062667</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="E23" t="n">
-        <v>85.20679246442273</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F23" t="n">
-        <v>53.94298182036445</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G23" t="n">
         <v>53.94298182036445</v>
@@ -5989,13 +5989,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K23" t="n">
         <v>463.9616490733127</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
@@ -6016,25 +6016,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S23" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T23" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U23" t="n">
-        <v>2642.120401548716</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V23" t="n">
-        <v>2311.057514205145</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W23" t="n">
-        <v>1958.288858935031</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X23" t="n">
-        <v>1584.823100673951</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y23" t="n">
-        <v>1584.823100673951</v>
+        <v>546.109828622464</v>
       </c>
     </row>
     <row r="24">
@@ -6083,7 +6083,7 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O24" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P24" t="n">
         <v>2525.076107152626</v>
@@ -6092,7 +6092,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R24" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S24" t="n">
         <v>2488.762748073963</v>
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>149.5382038240418</v>
+        <v>272.8312459770189</v>
       </c>
       <c r="C25" t="n">
-        <v>149.5382038240418</v>
+        <v>272.8312459770189</v>
       </c>
       <c r="D25" t="n">
-        <v>149.5382038240418</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E25" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F25" t="n">
         <v>53.94298182036445</v>
@@ -6177,22 +6177,22 @@
         <v>728.1289842064344</v>
       </c>
       <c r="T25" t="n">
-        <v>728.1289842064344</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U25" t="n">
-        <v>438.9553738610024</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="V25" t="n">
-        <v>438.9553738610024</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="W25" t="n">
-        <v>149.5382038240418</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="X25" t="n">
-        <v>149.5382038240418</v>
+        <v>272.8312459770189</v>
       </c>
       <c r="Y25" t="n">
-        <v>149.5382038240418</v>
+        <v>272.8312459770189</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1871.983983358263</v>
+        <v>777.3160057778007</v>
       </c>
       <c r="C26" t="n">
-        <v>1626.94664591678</v>
+        <v>777.3160057778007</v>
       </c>
       <c r="D26" t="n">
-        <v>1268.68094731003</v>
+        <v>419.0503071710502</v>
       </c>
       <c r="E26" t="n">
-        <v>882.8926947117852</v>
+        <v>419.0503071710502</v>
       </c>
       <c r="F26" t="n">
-        <v>471.9067899221776</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G26" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H26" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I26" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N26" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O26" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P26" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q26" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R26" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S26" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T26" t="n">
-        <v>2478.514423990285</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="U26" t="n">
         <v>2224.752638628377</v>
       </c>
       <c r="V26" t="n">
-        <v>2224.752638628377</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W26" t="n">
-        <v>1871.983983358263</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="X26" t="n">
-        <v>1871.983983358263</v>
+        <v>1167.455337753612</v>
       </c>
       <c r="Y26" t="n">
-        <v>1871.983983358263</v>
+        <v>777.3160057778007</v>
       </c>
     </row>
     <row r="27">
@@ -6281,37 +6281,37 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C27" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D27" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E27" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F27" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G27" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H27" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I27" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J27" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K27" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L27" t="n">
-        <v>789.0633827572647</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M27" t="n">
         <v>1194.968834417902</v>
@@ -6326,22 +6326,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q27" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R27" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S27" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T27" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U27" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V27" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W27" t="n">
         <v>1572.325111207638</v>
@@ -6350,7 +6350,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y27" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K28" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L28" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M28" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N28" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O28" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="S28" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245973</v>
       </c>
       <c r="T28" t="n">
-        <v>728.1289842064342</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="U28" t="n">
-        <v>438.9553738610022</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="V28" t="n">
-        <v>438.9553738610022</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="W28" t="n">
-        <v>149.5382038240415</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="X28" t="n">
-        <v>53.94298182036445</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1659.880644283887</v>
+        <v>1289.01781586839</v>
       </c>
       <c r="C29" t="n">
-        <v>1659.880644283887</v>
+        <v>920.0552989279781</v>
       </c>
       <c r="D29" t="n">
-        <v>1301.614945677136</v>
+        <v>561.7896003212277</v>
       </c>
       <c r="E29" t="n">
-        <v>915.826693078892</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F29" t="n">
-        <v>504.8407882892845</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G29" t="n">
-        <v>86.87698018747136</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H29" t="n">
         <v>53.94298182036445</v>
@@ -6463,13 +6463,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K29" t="n">
         <v>463.9616490733129</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
@@ -6478,7 +6478,7 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O29" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P29" t="n">
         <v>2544.691559791252</v>
@@ -6490,25 +6490,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S29" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T29" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U29" t="n">
-        <v>2423.485734520778</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V29" t="n">
-        <v>2423.485734520778</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W29" t="n">
-        <v>2423.485734520778</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X29" t="n">
-        <v>2050.019976259699</v>
+        <v>1289.01781586839</v>
       </c>
       <c r="Y29" t="n">
-        <v>1659.880644283887</v>
+        <v>1289.01781586839</v>
       </c>
     </row>
     <row r="30">
@@ -6518,19 +6518,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C30" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E30" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F30" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G30" t="n">
         <v>221.4284102424006</v>
@@ -6542,43 +6542,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J30" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K30" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L30" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M30" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N30" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O30" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P30" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q30" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R30" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S30" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T30" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U30" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V30" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W30" t="n">
         <v>1572.325111207638</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>53.94298182036445</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="C31" t="n">
-        <v>53.94298182036445</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D31" t="n">
-        <v>53.94298182036445</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E31" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F31" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G31" t="n">
         <v>53.94298182036445</v>
@@ -6639,34 +6639,34 @@
         <v>649.2617893594903</v>
       </c>
       <c r="P31" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q31" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R31" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="S31" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="T31" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="U31" t="n">
-        <v>438.9553738610024</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="V31" t="n">
-        <v>438.9553738610024</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="W31" t="n">
-        <v>438.9553738610024</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="X31" t="n">
-        <v>210.965822962985</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="Y31" t="n">
-        <v>53.94298182036445</v>
+        <v>667.8624625746712</v>
       </c>
     </row>
     <row r="32">
@@ -6676,37 +6676,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1391.463776022345</v>
+        <v>927.7879015331896</v>
       </c>
       <c r="C32" t="n">
-        <v>1022.501259081933</v>
+        <v>830.1724885289282</v>
       </c>
       <c r="D32" t="n">
-        <v>1022.501259081933</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="E32" t="n">
-        <v>1022.501259081933</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F32" t="n">
-        <v>611.5153542923256</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G32" t="n">
-        <v>193.5515461905125</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="H32" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I32" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J32" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K32" t="n">
         <v>463.9616490733129</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
@@ -6715,37 +6715,37 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O32" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P32" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q32" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R32" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S32" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T32" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U32" t="n">
-        <v>2520.971603332393</v>
+        <v>2388.358616186808</v>
       </c>
       <c r="V32" t="n">
-        <v>2520.971603332393</v>
+        <v>2057.295728843237</v>
       </c>
       <c r="W32" t="n">
-        <v>2168.202948062278</v>
+        <v>1704.527073573123</v>
       </c>
       <c r="X32" t="n">
-        <v>2168.202948062278</v>
+        <v>1704.527073573123</v>
       </c>
       <c r="Y32" t="n">
-        <v>1778.063616086466</v>
+        <v>1314.387741597311</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170839</v>
       </c>
       <c r="C33" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359569</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747056</v>
       </c>
       <c r="E33" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692501</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961351</v>
       </c>
       <c r="G33" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424012</v>
       </c>
       <c r="H33" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I33" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J33" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K33" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L33" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M33" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N33" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O33" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P33" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q33" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R33" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S33" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T33" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U33" t="n">
-        <v>2061.714576167582</v>
+        <v>2061.714576167583</v>
       </c>
       <c r="V33" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W33" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207639</v>
       </c>
       <c r="X33" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002106</v>
       </c>
       <c r="Y33" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>53.94298182036445</v>
+        <v>391.878965009939</v>
       </c>
       <c r="C34" t="n">
-        <v>53.94298182036445</v>
+        <v>222.9427820820321</v>
       </c>
       <c r="D34" t="n">
-        <v>53.94298182036445</v>
+        <v>222.9427820820321</v>
       </c>
       <c r="E34" t="n">
-        <v>53.94298182036445</v>
+        <v>222.9427820820321</v>
       </c>
       <c r="F34" t="n">
-        <v>53.94298182036445</v>
+        <v>222.9427820820321</v>
       </c>
       <c r="G34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="H34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K34" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L34" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M34" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N34" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O34" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P34" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q34" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R34" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="S34" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="T34" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="U34" t="n">
-        <v>224.6669506791649</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="V34" t="n">
-        <v>224.6669506791649</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="W34" t="n">
-        <v>224.6669506791649</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="X34" t="n">
-        <v>224.6669506791649</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Y34" t="n">
-        <v>53.94298182036445</v>
+        <v>573.5274298401787</v>
       </c>
     </row>
     <row r="35">
@@ -6913,37 +6913,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1626.94664591678</v>
+        <v>830.1724885289282</v>
       </c>
       <c r="C35" t="n">
-        <v>1626.94664591678</v>
+        <v>830.1724885289282</v>
       </c>
       <c r="D35" t="n">
-        <v>1268.68094731003</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="E35" t="n">
-        <v>882.8926947117852</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F35" t="n">
         <v>471.9067899221776</v>
       </c>
       <c r="G35" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H35" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I35" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
@@ -6952,13 +6952,13 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O35" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P35" t="n">
         <v>2544.691559791253</v>
       </c>
       <c r="Q35" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R35" t="n">
         <v>2642.120401548716</v>
@@ -6967,22 +6967,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T35" t="n">
-        <v>2247.308246834949</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U35" t="n">
-        <v>1993.546461473041</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V35" t="n">
-        <v>1993.546461473041</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W35" t="n">
-        <v>1993.546461473041</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="X35" t="n">
-        <v>1626.94664591678</v>
+        <v>1216.77232859305</v>
       </c>
       <c r="Y35" t="n">
-        <v>1626.94664591678</v>
+        <v>1216.77232859305</v>
       </c>
     </row>
     <row r="36">
@@ -6992,67 +6992,67 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C36" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E36" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F36" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G36" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H36" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J36" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K36" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L36" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M36" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N36" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O36" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P36" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q36" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R36" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S36" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T36" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U36" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V36" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W36" t="n">
         <v>1572.325111207638</v>
@@ -7071,31 +7071,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>53.94298182036446</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="C37" t="n">
-        <v>53.94298182036446</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D37" t="n">
-        <v>53.94298182036446</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E37" t="n">
-        <v>53.94298182036446</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F37" t="n">
-        <v>53.94298182036446</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G37" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H37" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I37" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J37" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K37" t="n">
         <v>110.2451748866326</v>
@@ -7113,34 +7113,34 @@
         <v>649.2617893594903</v>
       </c>
       <c r="P37" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q37" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R37" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="S37" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="T37" t="n">
-        <v>632.5337622027571</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="U37" t="n">
-        <v>343.3601518573251</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="V37" t="n">
-        <v>343.3601518573251</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="W37" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="X37" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Y37" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064346</v>
       </c>
     </row>
     <row r="38">
@@ -7150,16 +7150,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1268.68094731003</v>
+        <v>840.8693068625894</v>
       </c>
       <c r="C38" t="n">
-        <v>1268.68094731003</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="D38" t="n">
-        <v>1268.68094731003</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="E38" t="n">
-        <v>882.8926947117852</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F38" t="n">
         <v>471.9067899221776</v>
@@ -7177,10 +7177,10 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
@@ -7189,7 +7189,7 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O38" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P38" t="n">
         <v>2544.691559791253</v>
@@ -7198,28 +7198,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R38" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S38" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T38" t="n">
-        <v>2478.514423990285</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U38" t="n">
-        <v>2224.752638628377</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V38" t="n">
-        <v>1893.689751284806</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W38" t="n">
-        <v>1540.921096014692</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="X38" t="n">
-        <v>1268.68094731003</v>
+        <v>1227.469146926711</v>
       </c>
       <c r="Y38" t="n">
-        <v>1268.68094731003</v>
+        <v>1227.469146926711</v>
       </c>
     </row>
     <row r="39">
@@ -7229,37 +7229,37 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C39" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E39" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F39" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G39" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H39" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I39" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J39" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K39" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641986</v>
       </c>
       <c r="L39" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598705</v>
       </c>
       <c r="M39" t="n">
         <v>1194.968834417901</v>
@@ -7277,7 +7277,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R39" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S39" t="n">
         <v>2488.762748073963</v>
@@ -7292,10 +7292,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W39" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X39" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y39" t="n">
         <v>1156.713312237151</v>
@@ -7308,10 +7308,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>53.94298182036445</v>
+        <v>138.385715127383</v>
       </c>
       <c r="C40" t="n">
-        <v>53.94298182036445</v>
+        <v>138.385715127383</v>
       </c>
       <c r="D40" t="n">
         <v>53.94298182036445</v>
@@ -7350,34 +7350,34 @@
         <v>649.2617893594903</v>
       </c>
       <c r="P40" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q40" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R40" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406186</v>
       </c>
       <c r="S40" t="n">
-        <v>513.8405610245972</v>
+        <v>365.6939024587813</v>
       </c>
       <c r="T40" t="n">
-        <v>286.5323736931989</v>
+        <v>138.385715127383</v>
       </c>
       <c r="U40" t="n">
-        <v>286.5323736931989</v>
+        <v>138.385715127383</v>
       </c>
       <c r="V40" t="n">
-        <v>286.5323736931989</v>
+        <v>138.385715127383</v>
       </c>
       <c r="W40" t="n">
-        <v>286.5323736931989</v>
+        <v>138.385715127383</v>
       </c>
       <c r="X40" t="n">
-        <v>58.54282279518156</v>
+        <v>138.385715127383</v>
       </c>
       <c r="Y40" t="n">
-        <v>53.94298182036445</v>
+        <v>138.385715127383</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1595.875667274027</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="C41" t="n">
-        <v>1595.875667274027</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D41" t="n">
-        <v>1595.875667274027</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E41" t="n">
-        <v>1210.087414675782</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F41" t="n">
-        <v>799.1015098861748</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G41" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H41" t="n">
         <v>53.94298182036445</v>
@@ -7411,52 +7411,52 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J41" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533136</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733122</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N41" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O41" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P41" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q41" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R41" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S41" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T41" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U41" t="n">
-        <v>2443.387305656314</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V41" t="n">
-        <v>2338.783654519953</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W41" t="n">
-        <v>1986.014999249838</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="X41" t="n">
-        <v>1986.014999249838</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="Y41" t="n">
-        <v>1595.875667274027</v>
+        <v>1626.94664591678</v>
       </c>
     </row>
     <row r="42">
@@ -7466,49 +7466,49 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C42" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E42" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G42" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H42" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I42" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J42" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K42" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L42" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M42" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N42" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O42" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P42" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q42" t="n">
         <v>2697.149091018222</v>
@@ -7529,10 +7529,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W42" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X42" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y42" t="n">
         <v>1156.713312237151</v>
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>498.8626623130036</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C43" t="n">
-        <v>498.8626623130036</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D43" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E43" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F43" t="n">
         <v>53.94298182036445</v>
@@ -7587,34 +7587,34 @@
         <v>649.2617893594903</v>
       </c>
       <c r="P43" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q43" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R43" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="S43" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="T43" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="U43" t="n">
-        <v>728.1289842064344</v>
+        <v>438.9553738610025</v>
       </c>
       <c r="V43" t="n">
-        <v>728.1289842064344</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W43" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X43" t="n">
-        <v>500.1394333084171</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y43" t="n">
-        <v>500.1394333084171</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="44">
@@ -7624,31 +7624,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1154.32125595057</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="C44" t="n">
-        <v>830.1724885289282</v>
+        <v>567.286643657864</v>
       </c>
       <c r="D44" t="n">
-        <v>471.9067899221776</v>
+        <v>534.603677789272</v>
       </c>
       <c r="E44" t="n">
-        <v>471.9067899221776</v>
+        <v>534.603677789272</v>
       </c>
       <c r="F44" t="n">
-        <v>471.9067899221776</v>
+        <v>534.603677789272</v>
       </c>
       <c r="G44" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H44" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I44" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J44" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K44" t="n">
         <v>463.9616490733127</v>
@@ -7666,34 +7666,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P44" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q44" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R44" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S44" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T44" t="n">
-        <v>2478.514423990285</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U44" t="n">
-        <v>2224.752638628377</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V44" t="n">
-        <v>1893.689751284806</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W44" t="n">
-        <v>1540.921096014692</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X44" t="n">
-        <v>1540.921096014692</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y44" t="n">
-        <v>1540.921096014692</v>
+        <v>936.2491605982757</v>
       </c>
     </row>
     <row r="45">
@@ -7703,19 +7703,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C45" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D45" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E45" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F45" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G45" t="n">
         <v>221.4284102424006</v>
@@ -7727,43 +7727,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J45" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K45" t="n">
-        <v>266.2060027641992</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L45" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M45" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N45" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O45" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P45" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q45" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R45" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S45" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T45" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U45" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V45" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W45" t="n">
         <v>1572.325111207638</v>
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>272.8312459770189</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="C46" t="n">
-        <v>272.8312459770189</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="D46" t="n">
-        <v>272.8312459770189</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E46" t="n">
-        <v>124.9181523946257</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F46" t="n">
         <v>53.94298182036445</v>
@@ -7836,22 +7836,22 @@
         <v>728.1289842064344</v>
       </c>
       <c r="T46" t="n">
-        <v>500.8207968750362</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U46" t="n">
-        <v>500.8207968750362</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V46" t="n">
-        <v>500.8207968750362</v>
+        <v>491.2732454397182</v>
       </c>
       <c r="W46" t="n">
-        <v>500.8207968750362</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="X46" t="n">
-        <v>272.8312459770189</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="Y46" t="n">
-        <v>272.8312459770189</v>
+        <v>201.8560754027576</v>
       </c>
     </row>
   </sheetData>
@@ -8060,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>383.1483227996774</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N3" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>255.9771075721939</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8300,13 +8300,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M6" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>371.3463732493024</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
@@ -8534,22 +8534,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>301.248502863135</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
         <v>139.9817740860215</v>
@@ -8771,7 +8771,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>145.0294169142008</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9020,13 +9020,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783518</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9257,13 +9257,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783518</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720733</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9491,7 +9491,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9731,10 +9731,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783515</v>
       </c>
       <c r="P24" t="n">
-        <v>199.0269485415591</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9962,7 +9962,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>346.2692436516223</v>
+        <v>346.2692436516222</v>
       </c>
       <c r="N27" t="n">
         <v>479.3423743435536</v>
@@ -10129,7 +10129,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714817</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10205,13 +10205,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783513</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>166.6588033951781</v>
+        <v>90.64146763747164</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10606,7 +10606,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599038</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270189</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10676,13 +10676,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>435.9238900028824</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>199.0269485415595</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10843,7 +10843,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599043</v>
+        <v>212.3149906599038</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10901,16 +10901,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270189</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719074</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>346.2692436516221</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
         <v>479.3423743435536</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720732</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11080,7 +11080,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599043</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11138,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270189</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11150,7 +11150,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>435.9238900028824</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11159,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11317,7 +11317,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599043</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11375,10 +11375,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>221.0467526719081</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11396,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22549,13 +22549,13 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C2" t="n">
-        <v>124.2586028933485</v>
+        <v>152.9875061275654</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E2" t="n">
-        <v>179.6356836433646</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -22591,7 +22591,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
@@ -22615,7 +22615,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22631,16 +22631,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.4275445159327091</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
         <v>112.2354442364965</v>
@@ -22649,7 +22649,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22679,7 +22679,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>191.586200311184</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -22688,10 +22688,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -22749,7 +22749,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
         <v>177.2933913771695</v>
@@ -22761,13 +22761,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>239.4980740029173</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22783,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>330.3082731757329</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -22828,13 +22828,13 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
@@ -22852,7 +22852,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>291.8274516623475</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="6">
@@ -22871,7 +22871,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>122.2378149818625</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -22913,7 +22913,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -22925,7 +22925,7 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>10.68069428326055</v>
+        <v>146.95659991356</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -22986,13 +22986,13 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>177.2933913771695</v>
+        <v>130.2684670434958</v>
       </c>
       <c r="S7" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
         <v>227.9455894282815</v>
@@ -23020,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>180.4391552345834</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -23032,10 +23032,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G8" t="n">
-        <v>302.9738112079013</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -23065,19 +23065,19 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23089,7 +23089,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="9">
@@ -23159,10 +23159,10 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>136.2759056302994</v>
       </c>
       <c r="W9" t="n">
-        <v>146.95659991356</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -23257,19 +23257,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23278,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,28 +23305,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>15.39701237728269</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>285.0960658668792</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23427,19 +23427,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>50.7817782392907</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>156.1708888417951</v>
+        <v>122.1504031625521</v>
       </c>
       <c r="I13" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J13" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,10 +23460,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R13" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S13" t="n">
         <v>212.1455389500189</v>
@@ -23478,7 +23478,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23494,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>218.4656793949028</v>
+        <v>270.5894835939961</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,28 +23542,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S14" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23658,25 +23658,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>59.54933966209474</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I16" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J16" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,25 +23697,25 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R16" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T16" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V16" t="n">
-        <v>239.2918029954107</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23731,25 +23731,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>51.82411458594794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>210.7328829904785</v>
       </c>
       <c r="G17" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>151.9313162448613</v>
@@ -23779,10 +23779,10 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23791,16 +23791,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23898,10 +23898,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>167.3098022590509</v>
@@ -23913,7 +23913,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J19" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R19" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S19" t="n">
         <v>212.1455389500189</v>
@@ -23946,16 +23946,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
-        <v>157.4983735401874</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>102.2581670201565</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23968,16 +23968,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>172.4974560828481</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>369.6323601658649</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -23986,10 +23986,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I20" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,7 +24016,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S20" t="n">
         <v>174.4157128089715</v>
@@ -24028,13 +24028,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24129,10 +24129,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24141,7 +24141,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>156.1708888417951</v>
@@ -24150,7 +24150,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J22" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R22" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S22" t="n">
         <v>212.1455389500189</v>
@@ -24186,13 +24186,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V22" t="n">
-        <v>96.92615468724688</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>41.43760940271926</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24205,22 +24205,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>291.8118834577241</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>375.9248732040937</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>323.9227727643571</v>
@@ -24256,13 +24256,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24274,7 +24274,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24369,13 +24369,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>77.33713952605575</v>
       </c>
       <c r="E25" t="n">
-        <v>51.79469286292863</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>167.3098022590509</v>
@@ -24417,19 +24417,19 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T25" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24445,25 +24445,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>122.6859277039398</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>369.3425664088898</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24490,7 +24490,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S26" t="n">
         <v>174.4157128089715</v>
@@ -24502,16 +24502,16 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24624,7 +24624,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J28" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24645,31 +24645,31 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R28" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S28" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>225.0351054580843</v>
+        <v>214.0308107870258</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>131.0703856053968</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24682,25 +24682,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>292.9463877772022</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>291.3181143809213</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,16 +24730,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -24748,7 +24748,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24843,16 +24843,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>156.1708888417951</v>
@@ -24861,7 +24861,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J31" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24882,7 +24882,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R31" t="n">
         <v>146.6651919801578</v>
@@ -24894,7 +24894,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24903,10 +24903,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>166.0457989735914</v>
       </c>
       <c r="Y31" t="n">
-        <v>63.13204062090043</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24919,25 +24919,25 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>268.6336328967888</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>185.7102940379106</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,19 +24964,19 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25089,16 +25089,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I34" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J34" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25119,19 +25119,19 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>29.12274995491431</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R34" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T34" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25143,7 +25143,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>49.56792418188238</v>
+        <v>65.5291145295015</v>
       </c>
     </row>
     <row r="35">
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -25162,10 +25162,10 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -25174,7 +25174,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25210,16 +25210,16 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>6.797283277771044</v>
+        <v>26.4937688065375</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25311,22 +25311,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1681237664916</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>156.1708888417951</v>
@@ -25335,7 +25335,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J37" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25356,7 +25356,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R37" t="n">
         <v>146.6651919801578</v>
@@ -25365,16 +25365,16 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T37" t="n">
-        <v>130.3958356744437</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25390,19 +25390,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -25411,7 +25411,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,13 +25438,13 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -25456,7 +25456,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>100.2133534608534</v>
+        <v>71.85946610749369</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -25554,7 +25554,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>65.01716704426399</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25572,7 +25572,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J40" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25593,10 +25593,10 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R40" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>214.0308107870258</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25633,7 +25633,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25645,10 +25645,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,28 +25675,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>224.1946438451372</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>314.0594097868503</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25785,19 +25785,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>178.567976896478</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>167.3098022590509</v>
@@ -25809,7 +25809,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J43" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,7 +25830,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R43" t="n">
         <v>146.6651919801578</v>
@@ -25842,16 +25842,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>157.4983735401873</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25864,13 +25864,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>44.36561202358212</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>322.3269054107768</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -25879,13 +25879,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,10 +25912,10 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -25930,7 +25930,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -26034,7 +26034,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>75.15562915441258</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>167.3098022590509</v>
@@ -26076,19 +26076,19 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>17.6504619447789</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>490471.7086927898</v>
+        <v>490471.70869279</v>
       </c>
     </row>
     <row r="4">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>825001.5947190546</v>
+        <v>825001.5947190545</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>825001.5947190546</v>
+        <v>825001.5947190545</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>825001.5947190545</v>
+        <v>825001.5947190548</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>825001.5947190546</v>
+        <v>825001.5947190548</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>825001.5947190548</v>
+        <v>825001.5947190549</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>825001.5947190546</v>
+        <v>825001.5947190548</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>825001.5947190548</v>
+        <v>825001.5947190546</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>825001.5947190546</v>
+        <v>825001.5947190545</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>825001.5947190548</v>
+        <v>825001.5947190546</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>825001.5947190548</v>
+        <v>825001.5947190546</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>825001.5947190548</v>
+        <v>825001.5947190546</v>
       </c>
     </row>
   </sheetData>
@@ -26331,31 +26331,31 @@
         <v>231322.0880126061</v>
       </c>
       <c r="H2" t="n">
+        <v>231322.0880126061</v>
+      </c>
+      <c r="I2" t="n">
         <v>231322.0880126062</v>
-      </c>
-      <c r="I2" t="n">
-        <v>231322.0880126061</v>
       </c>
       <c r="J2" t="n">
         <v>231322.0880126061</v>
       </c>
       <c r="K2" t="n">
-        <v>231322.0880126061</v>
+        <v>231322.0880126062</v>
       </c>
       <c r="L2" t="n">
         <v>231322.0880126062</v>
       </c>
       <c r="M2" t="n">
-        <v>231322.0880126061</v>
+        <v>231322.0880126062</v>
       </c>
       <c r="N2" t="n">
-        <v>231322.0880126061</v>
+        <v>231322.0880126062</v>
       </c>
       <c r="O2" t="n">
         <v>231322.0880126061</v>
       </c>
       <c r="P2" t="n">
-        <v>231322.0880126061</v>
+        <v>231322.0880126062</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>432846.1740429961</v>
+        <v>432846.174042996</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910623</v>
+        <v>63059.94259910626</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>107973.3606740582</v>
+        <v>107973.3606740581</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,7 +26423,7 @@
         <v>42017.42535589615</v>
       </c>
       <c r="D4" t="n">
-        <v>42017.42535589614</v>
+        <v>42017.42535589615</v>
       </c>
       <c r="E4" t="n">
         <v>44802.65617556861</v>
@@ -26432,25 +26432,25 @@
         <v>44802.65617556861</v>
       </c>
       <c r="G4" t="n">
-        <v>44802.6561755686</v>
+        <v>44802.65617556861</v>
       </c>
       <c r="H4" t="n">
         <v>44802.6561755686</v>
       </c>
       <c r="I4" t="n">
-        <v>44802.6561755686</v>
+        <v>44802.65617556861</v>
       </c>
       <c r="J4" t="n">
         <v>44802.65617556861</v>
       </c>
       <c r="K4" t="n">
-        <v>44802.65617556861</v>
+        <v>44802.6561755686</v>
       </c>
       <c r="L4" t="n">
         <v>44802.65617556861</v>
       </c>
       <c r="M4" t="n">
-        <v>44802.65617556861</v>
+        <v>44802.6561755686</v>
       </c>
       <c r="N4" t="n">
         <v>44802.6561755686</v>
@@ -26459,7 +26459,7 @@
         <v>44802.6561755686</v>
       </c>
       <c r="P4" t="n">
-        <v>44802.65617556861</v>
+        <v>44802.6561755686</v>
       </c>
     </row>
     <row r="5">
@@ -26493,22 +26493,22 @@
         <v>49231.47806340946</v>
       </c>
       <c r="J5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340948</v>
       </c>
       <c r="K5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="L5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340949</v>
       </c>
       <c r="M5" t="n">
         <v>49231.47806340947</v>
       </c>
       <c r="N5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="O5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="P5" t="n">
         <v>49231.47806340946</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-50357.5982461801</v>
+        <v>-39361.38868814368</v>
       </c>
       <c r="C6" t="n">
-        <v>30411.83328536765</v>
+        <v>41408.04284340404</v>
       </c>
       <c r="D6" t="n">
-        <v>30411.83328536765</v>
+        <v>41408.04284340404</v>
       </c>
       <c r="E6" t="n">
-        <v>-301626.6340151873</v>
+        <v>-296165.0616439499</v>
       </c>
       <c r="F6" t="n">
-        <v>131219.5400278088</v>
+        <v>136681.1123990461</v>
       </c>
       <c r="G6" t="n">
-        <v>131219.5400278088</v>
+        <v>136681.1123990461</v>
       </c>
       <c r="H6" t="n">
-        <v>131219.5400278089</v>
+        <v>136681.1123990461</v>
       </c>
       <c r="I6" t="n">
-        <v>131219.5400278088</v>
+        <v>136681.1123990463</v>
       </c>
       <c r="J6" t="n">
-        <v>68159.5974287026</v>
+        <v>73621.1697999398</v>
       </c>
       <c r="K6" t="n">
-        <v>131219.5400278088</v>
+        <v>136681.1123990462</v>
       </c>
       <c r="L6" t="n">
-        <v>131219.5400278089</v>
+        <v>136681.1123990462</v>
       </c>
       <c r="M6" t="n">
-        <v>23246.1793537507</v>
+        <v>28707.75172498811</v>
       </c>
       <c r="N6" t="n">
-        <v>131219.5400278089</v>
+        <v>136681.1123990462</v>
       </c>
       <c r="O6" t="n">
-        <v>131219.5400278088</v>
+        <v>136681.1123990462</v>
       </c>
       <c r="P6" t="n">
-        <v>131219.5400278088</v>
+        <v>136681.1123990462</v>
       </c>
     </row>
   </sheetData>
@@ -26746,37 +26746,37 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="F3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="G3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="H3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="I3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="J3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="K3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="L3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="M3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="N3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="O3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="P3" t="n">
         <v>377.7436642170867</v>
@@ -26813,16 +26813,16 @@
         <v>674.2872727545556</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="L4" t="n">
+        <v>674.2872727545558</v>
+      </c>
+      <c r="M4" t="n">
         <v>674.2872727545556</v>
-      </c>
-      <c r="M4" t="n">
-        <v>674.2872727545557</v>
       </c>
       <c r="N4" t="n">
         <v>674.2872727545556</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.0142888776592</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>433.2729838768967</v>
+        <v>433.2729838768963</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31752,46 +31752,46 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H11" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J11" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K11" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L11" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M11" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N11" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O11" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P11" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q11" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S11" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U11" t="n">
         <v>0.1214853995472036</v>
@@ -31831,16 +31831,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I12" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J12" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K12" t="n">
         <v>131.2017781649102</v>
@@ -31858,22 +31858,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P12" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q12" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S12" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T12" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,19 +31910,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I13" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J13" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K13" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L13" t="n">
         <v>101.2724571246924</v>
@@ -31934,22 +31934,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P13" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R13" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S13" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T13" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U13" t="n">
         <v>0.0371551145131561</v>
@@ -31989,13 +31989,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H14" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J14" t="n">
         <v>128.8865178727436</v>
@@ -32013,22 +32013,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O14" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P14" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q14" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S14" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U14" t="n">
         <v>0.1214853995472036</v>
@@ -32068,16 +32068,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I15" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K15" t="n">
         <v>131.2017781649102</v>
@@ -32101,16 +32101,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S15" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T15" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,19 +32147,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I16" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J16" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K16" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L16" t="n">
         <v>101.2724571246924</v>
@@ -32171,13 +32171,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P16" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R16" t="n">
         <v>30.62819939701163</v>
@@ -32186,7 +32186,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T16" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U16" t="n">
         <v>0.0371551145131561</v>
@@ -32232,19 +32232,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I17" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J17" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K17" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L17" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M17" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N17" t="n">
         <v>270.9617944338304</v>
@@ -32259,13 +32259,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R17" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S17" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T17" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U17" t="n">
         <v>0.1214853995472036</v>
@@ -32305,16 +32305,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H18" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I18" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J18" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K18" t="n">
         <v>131.2017781649102</v>
@@ -32332,22 +32332,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P18" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q18" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R18" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S18" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T18" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,16 +32384,16 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H19" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I19" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J19" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K19" t="n">
         <v>79.14039391302239</v>
@@ -32408,16 +32408,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O19" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P19" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q19" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R19" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S19" t="n">
         <v>11.87105908695336</v>
@@ -32469,19 +32469,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I20" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J20" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K20" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L20" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M20" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N20" t="n">
         <v>270.9617944338304</v>
@@ -32496,13 +32496,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R20" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S20" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T20" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U20" t="n">
         <v>0.1214853995472036</v>
@@ -32542,16 +32542,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H21" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I21" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J21" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K21" t="n">
         <v>131.2017781649102</v>
@@ -32569,22 +32569,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P21" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q21" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R21" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S21" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T21" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,16 +32621,16 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H22" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I22" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J22" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K22" t="n">
         <v>79.14039391302239</v>
@@ -32645,16 +32645,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O22" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P22" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q22" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R22" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S22" t="n">
         <v>11.87105908695336</v>
@@ -32943,43 +32943,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I26" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J26" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K26" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L26" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M26" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N26" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O26" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P26" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q26" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R26" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S26" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T26" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H27" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I27" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J27" t="n">
-        <v>76.76392708396476</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K27" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L27" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M27" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N27" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O27" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P27" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q27" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R27" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S27" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T27" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,19 +33095,19 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H28" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I28" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J28" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K28" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L28" t="n">
         <v>101.2724571246924</v>
@@ -33119,25 +33119,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O28" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P28" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R28" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S28" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T28" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U28" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33180,7 +33180,7 @@
         <v>15.55202935141</v>
       </c>
       <c r="I29" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J29" t="n">
         <v>128.8865178727436</v>
@@ -33189,34 +33189,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L29" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M29" t="n">
         <v>266.6471645405368</v>
       </c>
       <c r="N29" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O29" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P29" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q29" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R29" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S29" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T29" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,40 +33253,40 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H30" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I30" t="n">
         <v>27.9744128689069</v>
       </c>
       <c r="J30" t="n">
-        <v>76.76392708396477</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K30" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L30" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M30" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N30" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O30" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P30" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q30" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R30" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S30" t="n">
         <v>15.09192847131473</v>
@@ -33295,7 +33295,7 @@
         <v>3.274966296372666</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,19 +33332,19 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H31" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I31" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J31" t="n">
-        <v>48.15922092813578</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K31" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L31" t="n">
         <v>101.2724571246924</v>
@@ -33356,25 +33356,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O31" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P31" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q31" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R31" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S31" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T31" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U31" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H32" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I32" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J32" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K32" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L32" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M32" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N32" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O32" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P32" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q32" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R32" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S32" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T32" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H33" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I33" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J33" t="n">
-        <v>76.76392708396475</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K33" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L33" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M33" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N33" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O33" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P33" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q33" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R33" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S33" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T33" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,19 +33569,19 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H34" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I34" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J34" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K34" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L34" t="n">
         <v>101.2724571246924</v>
@@ -33593,25 +33593,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O34" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P34" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q34" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R34" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S34" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T34" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U34" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33654,7 +33654,7 @@
         <v>15.55202935141</v>
       </c>
       <c r="I35" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J35" t="n">
         <v>128.8865178727436</v>
@@ -33663,34 +33663,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L35" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M35" t="n">
         <v>266.6471645405368</v>
       </c>
       <c r="N35" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O35" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P35" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q35" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R35" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S35" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T35" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,40 +33727,40 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H36" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I36" t="n">
         <v>27.9744128689069</v>
       </c>
       <c r="J36" t="n">
-        <v>76.76392708396477</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K36" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L36" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M36" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N36" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O36" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P36" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q36" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R36" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S36" t="n">
         <v>15.09192847131473</v>
@@ -33769,7 +33769,7 @@
         <v>3.274966296372666</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,19 +33806,19 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H37" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I37" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J37" t="n">
-        <v>48.15922092813578</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K37" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L37" t="n">
         <v>101.2724571246924</v>
@@ -33830,25 +33830,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O37" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P37" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q37" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R37" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S37" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T37" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U37" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33891,7 +33891,7 @@
         <v>15.55202935141</v>
       </c>
       <c r="I38" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J38" t="n">
         <v>128.8865178727436</v>
@@ -33900,34 +33900,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L38" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M38" t="n">
         <v>266.6471645405368</v>
       </c>
       <c r="N38" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O38" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P38" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q38" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R38" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S38" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T38" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,40 +33964,40 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H39" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I39" t="n">
         <v>27.9744128689069</v>
       </c>
       <c r="J39" t="n">
-        <v>76.76392708396477</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K39" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L39" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M39" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N39" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O39" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P39" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q39" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R39" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S39" t="n">
         <v>15.09192847131473</v>
@@ -34006,7 +34006,7 @@
         <v>3.274966296372666</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,19 +34043,19 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H40" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I40" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J40" t="n">
-        <v>48.15922092813578</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K40" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L40" t="n">
         <v>101.2724571246924</v>
@@ -34067,25 +34067,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O40" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P40" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q40" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R40" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S40" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T40" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U40" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34128,7 +34128,7 @@
         <v>15.55202935141</v>
       </c>
       <c r="I41" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J41" t="n">
         <v>128.8865178727436</v>
@@ -34137,34 +34137,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L41" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M41" t="n">
         <v>266.6471645405368</v>
       </c>
       <c r="N41" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O41" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P41" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q41" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S41" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,40 +34201,40 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I42" t="n">
         <v>27.9744128689069</v>
       </c>
       <c r="J42" t="n">
-        <v>76.76392708396477</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K42" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L42" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M42" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N42" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O42" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P42" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q42" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S42" t="n">
         <v>15.09192847131473</v>
@@ -34243,7 +34243,7 @@
         <v>3.274966296372666</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,19 +34280,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I43" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J43" t="n">
-        <v>48.15922092813578</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K43" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L43" t="n">
         <v>101.2724571246924</v>
@@ -34304,25 +34304,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P43" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R43" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S43" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T43" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U43" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34710,7 +34710,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N2" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O2" t="n">
         <v>150.7019698410586</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>241.0142888776591</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>113.3808631277494</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35020,13 +35020,13 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>232.285965523585</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
@@ -35254,22 +35254,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>232.285965523585</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35409,25 +35409,25 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K11" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L11" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M11" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N11" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O11" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P11" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q11" t="n">
         <v>153.9975062898689</v>
@@ -35488,10 +35488,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K12" t="n">
-        <v>138.389756104752</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L12" t="n">
         <v>408.7029475713857</v>
@@ -35500,13 +35500,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N12" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O12" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P12" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q12" t="n">
         <v>173.8110948137341</v>
@@ -35570,7 +35570,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L13" t="n">
         <v>128.8624823850085</v>
@@ -35585,7 +35585,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P13" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35661,10 +35661,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O14" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P14" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q14" t="n">
         <v>153.9975062898689</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K15" t="n">
         <v>257.8255762031298</v>
@@ -35740,13 +35740,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O15" t="n">
-        <v>444.5817404245898</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P15" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q15" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,7 +35807,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L16" t="n">
         <v>128.8624823850085</v>
@@ -35822,7 +35822,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P16" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35883,19 +35883,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K17" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L17" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M17" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N17" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O17" t="n">
         <v>406.5635087530452</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K18" t="n">
         <v>257.8255762031298</v>
@@ -35974,16 +35974,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N18" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O18" t="n">
-        <v>444.5817404245898</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P18" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q18" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36120,19 +36120,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>116.9372285181306</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K20" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L20" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M20" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N20" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O20" t="n">
         <v>406.5635087530452</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K21" t="n">
         <v>257.8255762031298</v>
@@ -36211,16 +36211,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N21" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O21" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P21" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q21" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36451,10 +36451,10 @@
         <v>559.3197334338903</v>
       </c>
       <c r="O24" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262118</v>
       </c>
       <c r="P24" t="n">
-        <v>220.2054057751866</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q24" t="n">
         <v>173.8110948137341</v>
@@ -36594,28 +36594,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K26" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L26" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M26" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N26" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O26" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P26" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q26" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36673,25 +36673,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K27" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L27" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M27" t="n">
         <v>410.0055067279162</v>
       </c>
       <c r="N27" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O27" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P27" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q27" t="n">
         <v>173.8110948137341</v>
@@ -36755,7 +36755,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L28" t="n">
         <v>128.8624823850085</v>
@@ -36767,10 +36767,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O28" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P28" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36837,22 +36837,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L29" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M29" t="n">
         <v>485.8144648060966</v>
       </c>
       <c r="N29" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O29" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P29" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116789</v>
       </c>
       <c r="Q29" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K30" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L30" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M30" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N30" t="n">
         <v>559.3197334338903</v>
       </c>
       <c r="O30" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262116</v>
       </c>
       <c r="P30" t="n">
         <v>339.6412258735647</v>
       </c>
       <c r="Q30" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36992,7 +36992,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L31" t="n">
         <v>128.8624823850085</v>
@@ -37004,10 +37004,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O31" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P31" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37068,28 +37068,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K32" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L32" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M32" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N32" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O32" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P32" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q32" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K33" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L33" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M33" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N33" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O33" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P33" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q33" t="n">
-        <v>130.3926104730631</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37229,7 +37229,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L34" t="n">
         <v>128.8624823850085</v>
@@ -37241,10 +37241,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O34" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P34" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37311,22 +37311,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L35" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M35" t="n">
         <v>485.8144648060966</v>
       </c>
       <c r="N35" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O35" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P35" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q35" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898681</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37384,25 +37384,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L36" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M36" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N36" t="n">
-        <v>559.3197334338903</v>
+        <v>515.9012490932192</v>
       </c>
       <c r="O36" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P36" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q36" t="n">
         <v>173.8110948137341</v>
@@ -37466,7 +37466,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L37" t="n">
         <v>128.8624823850085</v>
@@ -37478,10 +37478,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O37" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P37" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37548,22 +37548,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L38" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M38" t="n">
         <v>485.8144648060966</v>
       </c>
       <c r="N38" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O38" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P38" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q38" t="n">
-        <v>153.9975062898686</v>
+        <v>153.9975062898681</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37621,16 +37621,16 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624587</v>
       </c>
       <c r="L39" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M39" t="n">
-        <v>410.005506727916</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N39" t="n">
         <v>559.3197334338903</v>
@@ -37703,7 +37703,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L40" t="n">
         <v>128.8624823850085</v>
@@ -37715,10 +37715,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O40" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P40" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37779,28 +37779,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>116.9372285181311</v>
+        <v>116.9372285181305</v>
       </c>
       <c r="K41" t="n">
         <v>297.223041434342</v>
       </c>
       <c r="L41" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M41" t="n">
         <v>485.8144648060966</v>
       </c>
       <c r="N41" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O41" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P41" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q41" t="n">
-        <v>153.9975062898686</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37858,19 +37858,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L42" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M42" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N42" t="n">
-        <v>559.3197334338903</v>
+        <v>515.9012490932192</v>
       </c>
       <c r="O42" t="n">
         <v>444.5817404245898</v>
@@ -37879,7 +37879,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q42" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37940,7 +37940,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L43" t="n">
         <v>128.8624823850085</v>
@@ -37952,10 +37952,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O43" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P43" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38037,7 +38037,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q44" t="n">
-        <v>153.9975062898686</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38095,10 +38095,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K45" t="n">
-        <v>214.4070918624593</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L45" t="n">
         <v>408.7029475713857</v>
@@ -38116,7 +38116,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q45" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
